--- a/biology/Botanique/Cornus_angustata/Cornus_angustata.xlsx
+++ b/biology/Botanique/Cornus_angustata/Cornus_angustata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cornus angustata est une espèce d'arbustes, plus rarement d'arbres, de la famille des Cornaceae.
 Elle est haute de 4 à 10 m. Elle est originaire de Chine et rustique jusqu'en zone 7. Ses feuilles oblongues, vert lustré (parfois rougeâtres) sont persistantes et mesurent 7-9 cm par 2-5 cm. Son tronc est gris-brun et les jeunes branches vertes. Au printemps, ses inflorescences globuleuses sont entourées de quatre bractées blanches. Fruits rouges de 1,5 à 2,5 cm de diamètre, comestibles à l'automne.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cornus capitata var. angustata (Chun) W.P.Fang - (nom valide selon certains auteurs)
 Cornus elliptica (Pojark.) Q.Y. Xiang &amp; Boufford - (nom valide selon certains auteurs)
